--- a/Transactional Emails_v3.xlsx
+++ b/Transactional Emails_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="37840" windowHeight="20580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>Transactional Emails</t>
   </si>
@@ -986,18 +986,9 @@
     </r>
   </si>
   <si>
-    <t>PASSWORD STRAIGHT AWAY CHANGED SO NO MORE EMAIL FOR THIS</t>
-  </si>
-  <si>
-    <t>SENT BUT MAILCHIMP DEFAULT</t>
-  </si>
-  <si>
     <t>Gift Card</t>
   </si>
   <si>
-    <t>Invoice</t>
-  </si>
-  <si>
     <t>SENT CORRECTLY, need to fix layout a bit</t>
   </si>
   <si>
@@ -1010,10 +1001,22 @@
     <t>Invoice Email</t>
   </si>
   <si>
-    <t>Create HTML incase needed</t>
-  </si>
-  <si>
-    <t>To include Expiry Date &amp; GTC News??</t>
+    <t>To include Expiry Date &amp; GTC News? And also to set up</t>
+  </si>
+  <si>
+    <t>SEEMS CORRECT JUST NEED TO CHECK IF IT SEND OUT IN CORRECT TIMING</t>
+  </si>
+  <si>
+    <t>SET UP ALREADY, NEED TO TEST AGAIN ONCE MAILCHIMP IS CLEARED</t>
+  </si>
+  <si>
+    <t>PASSWORD STRAIGHT AWAY CHANGED SO NO LONGER NEEDED</t>
+  </si>
+  <si>
+    <t>SET UP ALREADY HAVENT TESTED, 2nd email needs to change style a bit</t>
+  </si>
+  <si>
+    <t>ONLY ON THE SAME DAY SEEMS CORRECT JUST NEED TO CHECK IF IT SEND OUT IN CORRECT TIMING</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1184,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1254,45 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1307,20 +1275,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1650,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1663,7 +1674,7 @@
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="64.5" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="73.33203125" customWidth="1"/>
     <col min="7" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1697,10 +1708,10 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="75">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1713,15 +1724,12 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1731,13 +1739,13 @@
       <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>83</v>
+      <c r="F5" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +1755,8 @@
       <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>83</v>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="105">
@@ -1767,12 +1775,13 @@
       <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>93</v>
-      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="120">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1787,12 +1796,12 @@
       <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="135">
-      <c r="A9" s="23"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
@@ -1805,15 +1814,16 @@
       <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>94</v>
-      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1830,8 +1840,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1841,8 +1851,8 @@
       <c r="E11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
-        <v>83</v>
+      <c r="F11" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="105">
@@ -1861,7 +1871,7 @@
       <c r="E12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1884,14 +1894,14 @@
       <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>83</v>
+      <c r="F14" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="105">
@@ -1910,15 +1920,15 @@
       <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="120">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1930,13 +1940,13 @@
       <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1944,15 +1954,15 @@
         <v>45</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="36" t="s">
-        <v>85</v>
+      <c r="F17" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="90">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1969,8 +1979,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="90">
-      <c r="A19" s="27"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1994,10 +2004,10 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="75">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2014,8 +2024,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="60">
-      <c r="A22" s="32"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="6" t="s">
         <v>57</v>
       </c>
@@ -2030,8 +2040,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="33"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6" t="s">
         <v>55</v>
       </c>
@@ -2072,10 +2082,10 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="60">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2089,8 +2099,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="6" t="s">
         <v>66</v>
       </c>
@@ -2112,7 +2122,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
         <v>82</v>
@@ -2120,38 +2130,35 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="39" t="s">
         <v>89</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B16:B17"/>
@@ -2160,11 +2167,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
